--- a/LM2ReadandList/NewListOut.xlsx
+++ b/LM2ReadandList/NewListOut.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AMSYS\Program\SystemProgram\LM2ReadandList_V2(20190801)\LM2ReadandList\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A00570\Desktop\LM2ReadandList\LM2ReadandList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18386FC-1740-44C3-A96E-7DAFE7455FBF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCE13DF-F8D3-49F8-82A5-47C1BD2F8DF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-1836" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20支嘜頭_1" sheetId="11" r:id="rId1"/>
@@ -56,7 +56,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -121,13 +121,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -337,9 +330,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -352,6 +342,39 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -376,44 +399,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -807,7 +800,7 @@
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="K5" sqref="K5:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
@@ -827,35 +820,35 @@
       <c r="A1" s="2"/>
       <c r="B1" s="6"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="37"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="18"/>
     </row>
     <row r="2" spans="1:17" ht="39.9" customHeight="1" thickBot="1">
       <c r="A2" s="4"/>
       <c r="B2" s="7"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="37"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="18"/>
       <c r="O2" s="10"/>
       <c r="P2" s="8"/>
       <c r="Q2" s="9"/>
@@ -864,18 +857,18 @@
       <c r="A3" s="4"/>
       <c r="B3" s="7"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="37"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="18"/>
       <c r="O3" s="10"/>
       <c r="P3" s="8"/>
       <c r="Q3" s="9"/>
@@ -884,132 +877,132 @@
       <c r="A4" s="4"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="14"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="13"/>
       <c r="O4" s="8"/>
       <c r="P4" s="10"/>
       <c r="Q4" s="9"/>
     </row>
     <row r="5" spans="1:17" ht="39.9" customHeight="1" thickBot="1">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="12"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="37"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
       <c r="Q5" s="9"/>
     </row>
     <row r="6" spans="1:17" ht="56.1" customHeight="1" thickBot="1">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
-      <c r="M6" s="13"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
+      <c r="M6" s="12"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
       <c r="Q6" s="9"/>
     </row>
     <row r="7" spans="1:17" ht="56.1" customHeight="1" thickBot="1">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="13"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
+      <c r="M7" s="12"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
       <c r="Q7" s="9"/>
     </row>
     <row r="8" spans="1:17" ht="56.1" customHeight="1" thickBot="1">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="13"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
+      <c r="M8" s="12"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
       <c r="Q8" s="9"/>
     </row>
     <row r="9" spans="1:17" ht="56.1" customHeight="1" thickBot="1">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
-      <c r="M9" s="13"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
+      <c r="M9" s="12"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
       <c r="Q9" s="9"/>
     </row>
     <row r="10" spans="1:17" ht="42" customHeight="1" thickBot="1">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="24"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="34"/>
       <c r="O10" s="11"/>
       <c r="P10" s="10"/>
       <c r="Q10" s="9"/>
@@ -1023,15 +1016,18 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G1:M1"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="G3:M3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="O5:P9"/>
@@ -1043,22 +1039,19 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="G3:M3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/LM2ReadandList/NewListOut.xlsx
+++ b/LM2ReadandList/NewListOut.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A00570\Desktop\LM2ReadandList\LM2ReadandList\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A00570\Desktop\GitHub\LM2ReadandList\LM2ReadandList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCE13DF-F8D3-49F8-82A5-47C1BD2F8DF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C463DD66-4618-4068-88E6-B99E55E4A76C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20支嘜頭_1" sheetId="11" r:id="rId1"/>
@@ -56,7 +56,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -121,6 +121,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -293,7 +300,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -342,6 +349,63 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -351,62 +415,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -438,7 +454,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>653143</xdr:colOff>
+      <xdr:colOff>668383</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>206375</xdr:rowOff>
     </xdr:to>
@@ -800,10 +816,10 @@
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:M5"/>
+      <selection activeCell="G1" sqref="G1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="8" width="12.109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.77734375" style="1" customWidth="1"/>
@@ -816,218 +832,215 @@
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="39.9" customHeight="1" thickBot="1">
+    <row r="1" spans="1:17" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="6"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="18"/>
-    </row>
-    <row r="2" spans="1:17" ht="39.9" customHeight="1" thickBot="1">
+      <c r="E1" s="36"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="37"/>
+    </row>
+    <row r="2" spans="1:17" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="7"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="18"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="40"/>
       <c r="O2" s="10"/>
       <c r="P2" s="8"/>
       <c r="Q2" s="9"/>
     </row>
-    <row r="3" spans="1:17" ht="39.9" customHeight="1" thickBot="1">
+    <row r="3" spans="1:17" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="7"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="18"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="37"/>
       <c r="O3" s="10"/>
       <c r="P3" s="8"/>
       <c r="Q3" s="9"/>
     </row>
-    <row r="4" spans="1:17" ht="39.9" customHeight="1" thickBot="1">
+    <row r="4" spans="1:17" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
       <c r="M4" s="13"/>
       <c r="O4" s="8"/>
       <c r="P4" s="10"/>
       <c r="Q4" s="9"/>
     </row>
-    <row r="5" spans="1:17" ht="39.9" customHeight="1" thickBot="1">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:17" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="37"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="18"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
       <c r="Q5" s="9"/>
     </row>
-    <row r="6" spans="1:17" ht="56.1" customHeight="1" thickBot="1">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
+    <row r="6" spans="1:17" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" s="12"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
       <c r="Q6" s="9"/>
     </row>
-    <row r="7" spans="1:17" ht="56.1" customHeight="1" thickBot="1">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
+    <row r="7" spans="1:17" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="12"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
       <c r="Q7" s="9"/>
     </row>
-    <row r="8" spans="1:17" ht="56.1" customHeight="1" thickBot="1">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
+    <row r="8" spans="1:17" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="12"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
       <c r="Q8" s="9"/>
     </row>
-    <row r="9" spans="1:17" ht="56.1" customHeight="1" thickBot="1">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
+    <row r="9" spans="1:17" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
       <c r="M9" s="12"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
       <c r="Q9" s="9"/>
     </row>
-    <row r="10" spans="1:17" ht="42" customHeight="1" thickBot="1">
+    <row r="10" spans="1:17" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="30" t="s">
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="31"/>
+      <c r="I10" s="23"/>
       <c r="J10" s="15"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="34"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="26"/>
       <c r="O10" s="11"/>
       <c r="P10" s="10"/>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N13" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="G3:M3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:L4"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="O5:P9"/>
@@ -1043,15 +1056,18 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="G9:H9"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G1:M1"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="G3:M3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/LM2ReadandList/NewListOut.xlsx
+++ b/LM2ReadandList/NewListOut.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A00570\Desktop\GitHub\LM2ReadandList\LM2ReadandList\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F00019\Documents\GitHub\LM2ReadandList\LM2ReadandList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C463DD66-4618-4068-88E6-B99E55E4A76C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA32487-DC52-42B2-BFDA-A43C3CE7F2AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20支嘜頭_1" sheetId="11" r:id="rId1"/>
@@ -56,7 +56,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -300,13 +300,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -316,95 +313,35 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -423,6 +360,63 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -493,9 +487,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -533,9 +527,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -568,26 +562,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -620,26 +597,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -813,234 +773,218 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:M1"/>
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="8" width="12.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="23.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9" style="1"/>
-    <col min="15" max="16" width="28.6640625" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
+    <col min="1" max="8" width="12.109375" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" customWidth="1"/>
+    <col min="13" max="13" width="23.6640625" customWidth="1"/>
+    <col min="15" max="16" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="35" t="s">
+    <row r="1" spans="1:16" ht="39.9" customHeight="1" thickBot="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="37"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="16"/>
     </row>
-    <row r="2" spans="1:17" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="35" t="s">
+    <row r="2" spans="1:16" ht="39.9" customHeight="1" thickBot="1">
+      <c r="A2" s="3"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="40"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="9"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="19"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="7"/>
     </row>
-    <row r="3" spans="1:17" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="35" t="s">
+    <row r="3" spans="1:16" ht="39.9" customHeight="1" thickBot="1">
+      <c r="A3" s="3"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="37"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="9"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="16"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="7"/>
     </row>
-    <row r="4" spans="1:17" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="35" t="s">
+    <row r="4" spans="1:16" ht="39.9" customHeight="1" thickBot="1">
+      <c r="A4" s="3"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="13"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="9"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="11"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="8"/>
     </row>
-    <row r="5" spans="1:17" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:16" ht="39.9" customHeight="1" thickBot="1">
+      <c r="A5" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="18"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="9"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="29"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
     </row>
-    <row r="6" spans="1:17" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="12"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="9"/>
+    <row r="6" spans="1:16" ht="56.1" customHeight="1" thickBot="1">
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="10"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
     </row>
-    <row r="7" spans="1:17" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="12"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="9"/>
+    <row r="7" spans="1:16" ht="56.1" customHeight="1" thickBot="1">
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="10"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
     </row>
-    <row r="8" spans="1:17" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="12"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="9"/>
+    <row r="8" spans="1:16" ht="56.1" customHeight="1" thickBot="1">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="10"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
     </row>
-    <row r="9" spans="1:17" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="12"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="9"/>
+    <row r="9" spans="1:16" ht="56.1" customHeight="1" thickBot="1">
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="10"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
     </row>
-    <row r="10" spans="1:17" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
+    <row r="10" spans="1:16" ht="42" customHeight="1" thickBot="1">
+      <c r="A10" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="22" t="s">
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="23"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="26"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="9"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="N13" s="9"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="37"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G1:M1"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="G3:M3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K5:M5"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="O5:P9"/>
@@ -1057,17 +1001,15 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="G3:M3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/LM2ReadandList/NewListOut.xlsx
+++ b/LM2ReadandList/NewListOut.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F00019\Documents\GitHub\LM2ReadandList\LM2ReadandList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA32487-DC52-42B2-BFDA-A43C3CE7F2AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE75AA25-0C66-46E5-BE5E-3C33F54510AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20支嘜頭_1" sheetId="11" r:id="rId1"/>
@@ -343,6 +343,60 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -361,61 +415,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -448,9 +448,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>668383</xdr:colOff>
+      <xdr:colOff>664573</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>206375</xdr:rowOff>
+      <xdr:rowOff>210185</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -794,35 +794,35 @@
       <c r="A1" s="1"/>
       <c r="B1" s="5"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="16"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="34"/>
     </row>
     <row r="2" spans="1:16" ht="39.9" customHeight="1" thickBot="1">
       <c r="A2" s="3"/>
       <c r="B2" s="6"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="19"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="37"/>
       <c r="O2" s="8"/>
       <c r="P2" s="7"/>
     </row>
@@ -830,18 +830,18 @@
       <c r="A3" s="3"/>
       <c r="B3" s="6"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="16"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="34"/>
       <c r="O3" s="8"/>
       <c r="P3" s="7"/>
     </row>
@@ -849,39 +849,39 @@
       <c r="A4" s="3"/>
       <c r="B4" s="6"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
       <c r="M4" s="11"/>
       <c r="O4" s="7"/>
       <c r="P4" s="8"/>
     </row>
     <row r="5" spans="1:16" ht="39.9" customHeight="1" thickBot="1">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="29"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="24"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
     </row>
     <row r="6" spans="1:16" ht="56.1" customHeight="1" thickBot="1">
       <c r="A6" s="38"/>
@@ -897,8 +897,8 @@
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="10"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
     </row>
     <row r="7" spans="1:16" ht="56.1" customHeight="1" thickBot="1">
       <c r="A7" s="38"/>
@@ -914,8 +914,8 @@
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="10"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
     </row>
     <row r="8" spans="1:16" ht="56.1" customHeight="1" thickBot="1">
       <c r="A8" s="38"/>
@@ -931,8 +931,8 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="10"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
     </row>
     <row r="9" spans="1:16" ht="56.1" customHeight="1" thickBot="1">
       <c r="A9" s="38"/>
@@ -948,42 +948,42 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="10"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
     </row>
     <row r="10" spans="1:16" ht="42" customHeight="1" thickBot="1">
       <c r="A10" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="33" t="s">
+      <c r="B10" s="25"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="34"/>
+      <c r="I10" s="18"/>
       <c r="J10" s="13"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="37"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="21"/>
       <c r="O10" s="9"/>
       <c r="P10" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="G3:M3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D3:F3"/>
     <mergeCell ref="K5:M5"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="A5:J5"/>
@@ -1000,16 +1000,16 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G1:M1"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="G3:M3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/LM2ReadandList/NewListOut.xlsx
+++ b/LM2ReadandList/NewListOut.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F00019\Documents\GitHub\LM2ReadandList\LM2ReadandList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE75AA25-0C66-46E5-BE5E-3C33F54510AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7D5F4C-BD83-466D-8CB1-4A16560EA279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -367,6 +367,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -414,9 +417,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -448,7 +448,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>664573</xdr:colOff>
+      <xdr:colOff>528501</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>210185</xdr:rowOff>
     </xdr:to>
@@ -776,14 +776,12 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="8" width="12.109375" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" customWidth="1"/>
+    <col min="1" max="10" width="13.109375" customWidth="1"/>
     <col min="11" max="11" width="12.6640625" customWidth="1"/>
     <col min="12" max="12" width="8.6640625" customWidth="1"/>
     <col min="13" max="13" width="23.6640625" customWidth="1"/>
@@ -794,35 +792,35 @@
       <c r="A1" s="1"/>
       <c r="B1" s="5"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="35"/>
     </row>
     <row r="2" spans="1:16" ht="39.9" customHeight="1" thickBot="1">
       <c r="A2" s="3"/>
       <c r="B2" s="6"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="37"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="38"/>
       <c r="O2" s="8"/>
       <c r="P2" s="7"/>
     </row>
@@ -830,18 +828,18 @@
       <c r="A3" s="3"/>
       <c r="B3" s="6"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="35"/>
       <c r="O3" s="8"/>
       <c r="P3" s="7"/>
     </row>
@@ -849,114 +847,114 @@
       <c r="A4" s="3"/>
       <c r="B4" s="6"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
       <c r="M4" s="11"/>
       <c r="O4" s="7"/>
       <c r="P4" s="8"/>
     </row>
     <row r="5" spans="1:16" ht="39.9" customHeight="1" thickBot="1">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="24"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="25"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
     </row>
     <row r="6" spans="1:16" ht="56.1" customHeight="1" thickBot="1">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="10"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
     </row>
     <row r="7" spans="1:16" ht="56.1" customHeight="1" thickBot="1">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="10"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
     </row>
     <row r="8" spans="1:16" ht="56.1" customHeight="1" thickBot="1">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="10"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
     </row>
     <row r="9" spans="1:16" ht="56.1" customHeight="1" thickBot="1">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="10"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
     </row>
     <row r="10" spans="1:16" ht="42" customHeight="1" thickBot="1">
       <c r="A10" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="14"/>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
@@ -1014,7 +1012,7 @@
   <phoneticPr fontId="6" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="3" scale="45" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="3" scale="40" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/LM2ReadandList/NewListOut.xlsx
+++ b/LM2ReadandList/NewListOut.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F00019\Documents\GitHub\LM2ReadandList\LM2ReadandList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7D5F4C-BD83-466D-8CB1-4A16560EA279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBD61E2-F957-437F-9BA0-6092C468B8BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -343,6 +343,57 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -366,57 +417,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -776,7 +776,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C6" sqref="C6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
@@ -792,35 +792,35 @@
       <c r="A1" s="1"/>
       <c r="B1" s="5"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="35"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="16"/>
     </row>
     <row r="2" spans="1:16" ht="39.9" customHeight="1" thickBot="1">
       <c r="A2" s="3"/>
       <c r="B2" s="6"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="38"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="19"/>
       <c r="O2" s="8"/>
       <c r="P2" s="7"/>
     </row>
@@ -828,18 +828,18 @@
       <c r="A3" s="3"/>
       <c r="B3" s="6"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="35"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="16"/>
       <c r="O3" s="8"/>
       <c r="P3" s="7"/>
     </row>
@@ -847,141 +847,141 @@
       <c r="A4" s="3"/>
       <c r="B4" s="6"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
       <c r="M4" s="11"/>
       <c r="O4" s="7"/>
       <c r="P4" s="8"/>
     </row>
     <row r="5" spans="1:16" ht="39.9" customHeight="1" thickBot="1">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="25"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="23"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
     </row>
     <row r="6" spans="1:16" ht="56.1" customHeight="1" thickBot="1">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="10"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
     </row>
     <row r="7" spans="1:16" ht="56.1" customHeight="1" thickBot="1">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="10"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
     </row>
     <row r="8" spans="1:16" ht="56.1" customHeight="1" thickBot="1">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="10"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
     </row>
     <row r="9" spans="1:16" ht="56.1" customHeight="1" thickBot="1">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="10"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
     </row>
     <row r="10" spans="1:16" ht="42" customHeight="1" thickBot="1">
       <c r="A10" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="17" t="s">
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="18"/>
+      <c r="I10" s="35"/>
       <c r="J10" s="13"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="21"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="38"/>
       <c r="O10" s="9"/>
       <c r="P10" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="G1:M1"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="G3:M3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
     <mergeCell ref="K5:M5"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="A5:J5"/>
@@ -998,21 +998,21 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="G9:H9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="G3:M3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="3" scale="40" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="3" scale="43" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/LM2ReadandList/NewListOut.xlsx
+++ b/LM2ReadandList/NewListOut.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F00019\Documents\GitHub\LM2ReadandList\LM2ReadandList\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F00019\Desktop\HEJMO\LM2ReadandList 20240126-2\LM2ReadandList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBD61E2-F957-437F-9BA0-6092C468B8BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E95F3E-B1C9-48E8-8744-377130DE4B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -300,7 +300,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -343,6 +343,57 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -360,63 +411,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -448,7 +442,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>528501</xdr:colOff>
+      <xdr:colOff>513261</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>210185</xdr:rowOff>
     </xdr:to>
@@ -775,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:D6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
@@ -792,35 +786,35 @@
       <c r="A1" s="1"/>
       <c r="B1" s="5"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="16"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="33"/>
     </row>
     <row r="2" spans="1:16" ht="39.9" customHeight="1" thickBot="1">
       <c r="A2" s="3"/>
       <c r="B2" s="6"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="19"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="36"/>
       <c r="O2" s="8"/>
       <c r="P2" s="7"/>
     </row>
@@ -828,18 +822,18 @@
       <c r="A3" s="3"/>
       <c r="B3" s="6"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="16"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="33"/>
       <c r="O3" s="8"/>
       <c r="P3" s="7"/>
     </row>
@@ -847,17 +841,17 @@
       <c r="A4" s="3"/>
       <c r="B4" s="6"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
       <c r="M4" s="11"/>
       <c r="O4" s="7"/>
       <c r="P4" s="8"/>
@@ -955,33 +949,33 @@
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="25"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="34" t="s">
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="35"/>
+      <c r="I10" s="25"/>
       <c r="J10" s="13"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="38"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="19"/>
       <c r="O10" s="9"/>
       <c r="P10" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="G3:M3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D3:F3"/>
     <mergeCell ref="K5:M5"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="A5:J5"/>
@@ -998,16 +992,16 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G1:M1"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="G3:M3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/LM2ReadandList/NewListOut.xlsx
+++ b/LM2ReadandList/NewListOut.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F00019\Desktop\HEJMO\LM2ReadandList 20240126-2\LM2ReadandList\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MIS-Kung\Desktop\github\LM2ReadandList\LM2ReadandList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E95F3E-B1C9-48E8-8744-377130DE4B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECA2F92-9AAB-4F0B-8089-F682EA5B6773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20支嘜頭_1" sheetId="11" r:id="rId1"/>
@@ -56,7 +56,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -343,23 +343,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
@@ -394,22 +385,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -770,10 +770,10 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:M1"/>
+      <selection activeCell="G2" sqref="G2:M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="10" width="13.109375" customWidth="1"/>
     <col min="11" max="11" width="12.6640625" customWidth="1"/>
@@ -782,32 +782,32 @@
     <col min="15" max="16" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="39.9" customHeight="1" thickBot="1">
+    <row r="1" spans="1:16" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="5"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="33"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="16"/>
     </row>
-    <row r="2" spans="1:16" ht="39.9" customHeight="1" thickBot="1">
+    <row r="2" spans="1:16" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="6"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="33"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
       <c r="G2" s="34"/>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -818,164 +818,164 @@
       <c r="O2" s="8"/>
       <c r="P2" s="7"/>
     </row>
-    <row r="3" spans="1:16" ht="39.9" customHeight="1" thickBot="1">
+    <row r="3" spans="1:16" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="6"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="33"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="16"/>
       <c r="O3" s="8"/>
       <c r="P3" s="7"/>
     </row>
-    <row r="4" spans="1:16" ht="39.9" customHeight="1" thickBot="1">
+    <row r="4" spans="1:16" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="6"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
       <c r="M4" s="11"/>
       <c r="O4" s="7"/>
       <c r="P4" s="8"/>
     </row>
-    <row r="5" spans="1:16" ht="39.9" customHeight="1" thickBot="1">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:16" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="23"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="20"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
     </row>
-    <row r="6" spans="1:16" ht="56.1" customHeight="1" thickBot="1">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
+    <row r="6" spans="1:16" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="10"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
     </row>
-    <row r="7" spans="1:16" ht="56.1" customHeight="1" thickBot="1">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
+    <row r="7" spans="1:16" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="10"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
     </row>
-    <row r="8" spans="1:16" ht="56.1" customHeight="1" thickBot="1">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
+    <row r="8" spans="1:16" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="10"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
     </row>
-    <row r="9" spans="1:16" ht="56.1" customHeight="1" thickBot="1">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
+    <row r="9" spans="1:16" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="10"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
     </row>
-    <row r="10" spans="1:16" ht="42" customHeight="1" thickBot="1">
+    <row r="10" spans="1:16" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="24" t="s">
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="25"/>
+      <c r="I10" s="22"/>
       <c r="J10" s="13"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="19"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="33"/>
       <c r="O10" s="9"/>
       <c r="P10" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="G1:M1"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="G3:M3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
     <mergeCell ref="K5:M5"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="A5:J5"/>
@@ -992,16 +992,16 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="G9:H9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="G3:M3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/LM2ReadandList/NewListOut.xlsx
+++ b/LM2ReadandList/NewListOut.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MIS-Kung\Desktop\github\LM2ReadandList\LM2ReadandList\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F00019\Documents\GitHub\LM2ReadandList\LM2ReadandList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECA2F92-9AAB-4F0B-8089-F682EA5B6773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBA94A5-04DE-40D6-837A-B36F24554DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -343,6 +343,57 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -351,57 +402,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -429,55 +429,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>41276</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>254000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>513261</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>210185</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="圖片 1" descr="logo白底黑字.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="41276" y="254000"/>
-          <a:ext cx="2266496" cy="1454604"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -773,7 +724,7 @@
       <selection activeCell="G2" sqref="G2:M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="10" width="13.109375" customWidth="1"/>
     <col min="11" max="11" width="12.6640625" customWidth="1"/>
@@ -782,32 +733,32 @@
     <col min="15" max="16" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="39.9" customHeight="1" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="5"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="16"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="33"/>
     </row>
-    <row r="2" spans="1:16" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="39.9" customHeight="1" thickBot="1">
       <c r="A2" s="3"/>
       <c r="B2" s="6"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
       <c r="G2" s="34"/>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -818,164 +769,164 @@
       <c r="O2" s="8"/>
       <c r="P2" s="7"/>
     </row>
-    <row r="3" spans="1:16" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="39.9" customHeight="1" thickBot="1">
       <c r="A3" s="3"/>
       <c r="B3" s="6"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="16"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="33"/>
       <c r="O3" s="8"/>
       <c r="P3" s="7"/>
     </row>
-    <row r="4" spans="1:16" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="39.9" customHeight="1" thickBot="1">
       <c r="A4" s="3"/>
       <c r="B4" s="6"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
       <c r="M4" s="11"/>
       <c r="O4" s="7"/>
       <c r="P4" s="8"/>
     </row>
-    <row r="5" spans="1:16" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="23" t="s">
+    <row r="5" spans="1:16" ht="39.9" customHeight="1" thickBot="1">
+      <c r="A5" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="20"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="25"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
     </row>
-    <row r="6" spans="1:16" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
+    <row r="6" spans="1:16" ht="56.1" customHeight="1" thickBot="1">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="10"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
     </row>
-    <row r="7" spans="1:16" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
+    <row r="7" spans="1:16" ht="56.1" customHeight="1" thickBot="1">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="10"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
     </row>
-    <row r="8" spans="1:16" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
+    <row r="8" spans="1:16" ht="56.1" customHeight="1" thickBot="1">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="10"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
     </row>
-    <row r="9" spans="1:16" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
+    <row r="9" spans="1:16" ht="56.1" customHeight="1" thickBot="1">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="10"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
     </row>
-    <row r="10" spans="1:16" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="42" customHeight="1" thickBot="1">
       <c r="A10" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="21" t="s">
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="22"/>
+      <c r="I10" s="18"/>
       <c r="J10" s="13"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="33"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="21"/>
       <c r="O10" s="9"/>
       <c r="P10" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="G3:M3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D3:F3"/>
     <mergeCell ref="K5:M5"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="A5:J5"/>
@@ -992,21 +943,20 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G1:M1"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="G3:M3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="3" scale="43" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>